--- a/INFI/Aufgabe3/data/Zeitreihe-Winter-2022092012.xlsx
+++ b/INFI/Aufgabe3/data/Zeitreihe-Winter-2022092012.xlsx
@@ -1062,7 +1062,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy hh:mm"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,12 +1112,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1206,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1301,17 +1295,14 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1649,7 +1640,7 @@
     <col min="26" max="26" style="15" width="7.862142857142857" customWidth="1" bestFit="1"/>
     <col min="27" max="27" style="23" width="11.43357142857143" customWidth="1" bestFit="1"/>
     <col min="28" max="28" style="23" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="35" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="34" width="10.005" customWidth="1" bestFit="1"/>
     <col min="30" max="30" style="23" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="31" max="31" style="23" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="32" max="32" style="23" width="14.147857142857141" customWidth="1" bestFit="1"/>
@@ -1743,34 +1734,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="19"/>
-      <c r="B2" s="32"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
       <c r="AA2" s="19"/>
       <c r="AB2" s="19"/>
-      <c r="AC2" s="33"/>
+      <c r="AC2" s="32"/>
       <c r="AD2" s="19"/>
       <c r="AE2" s="19"/>
       <c r="AF2" s="19"/>
@@ -1856,9 +1847,9 @@
       </c>
       <c r="AA3" s="19"/>
       <c r="AB3" s="19"/>
-      <c r="AC3" s="33"/>
+      <c r="AC3" s="32"/>
       <c r="AD3" s="22"/>
-      <c r="AE3" s="34"/>
+      <c r="AE3" s="33"/>
       <c r="AF3" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -1942,7 +1933,7 @@
       </c>
       <c r="AA4" s="19"/>
       <c r="AB4" s="19"/>
-      <c r="AC4" s="33"/>
+      <c r="AC4" s="32"/>
       <c r="AD4" s="19"/>
       <c r="AE4" s="19"/>
       <c r="AF4" s="19"/>
@@ -2028,7 +2019,7 @@
       </c>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="33"/>
+      <c r="AC5" s="32"/>
       <c r="AD5" s="19"/>
       <c r="AE5" s="19"/>
       <c r="AF5" s="19"/>
@@ -2114,7 +2105,7 @@
       </c>
       <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
-      <c r="AC6" s="33"/>
+      <c r="AC6" s="32"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
@@ -2200,7 +2191,7 @@
       </c>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
-      <c r="AC7" s="33"/>
+      <c r="AC7" s="32"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
@@ -2286,7 +2277,7 @@
       </c>
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
-      <c r="AC8" s="33"/>
+      <c r="AC8" s="32"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
@@ -2372,7 +2363,7 @@
       </c>
       <c r="AA9" s="19"/>
       <c r="AB9" s="19"/>
-      <c r="AC9" s="33"/>
+      <c r="AC9" s="32"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
@@ -2458,7 +2449,7 @@
       </c>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
-      <c r="AC10" s="33"/>
+      <c r="AC10" s="32"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
@@ -2544,7 +2535,7 @@
       </c>
       <c r="AA11" s="19"/>
       <c r="AB11" s="19"/>
-      <c r="AC11" s="33"/>
+      <c r="AC11" s="32"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
@@ -2630,7 +2621,7 @@
       </c>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="33"/>
+      <c r="AC12" s="32"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
@@ -2716,7 +2707,7 @@
       </c>
       <c r="AA13" s="19"/>
       <c r="AB13" s="19"/>
-      <c r="AC13" s="33"/>
+      <c r="AC13" s="32"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
@@ -2802,7 +2793,7 @@
       </c>
       <c r="AA14" s="19"/>
       <c r="AB14" s="19"/>
-      <c r="AC14" s="33"/>
+      <c r="AC14" s="32"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
@@ -2888,7 +2879,7 @@
       </c>
       <c r="AA15" s="19"/>
       <c r="AB15" s="19"/>
-      <c r="AC15" s="33"/>
+      <c r="AC15" s="32"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
@@ -2974,7 +2965,7 @@
       </c>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="33"/>
+      <c r="AC16" s="32"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
@@ -3060,7 +3051,7 @@
       </c>
       <c r="AA17" s="19"/>
       <c r="AB17" s="19"/>
-      <c r="AC17" s="33"/>
+      <c r="AC17" s="32"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
@@ -3146,7 +3137,7 @@
       </c>
       <c r="AA18" s="19"/>
       <c r="AB18" s="19"/>
-      <c r="AC18" s="33"/>
+      <c r="AC18" s="32"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
@@ -3232,7 +3223,7 @@
       </c>
       <c r="AA19" s="19"/>
       <c r="AB19" s="19"/>
-      <c r="AC19" s="33"/>
+      <c r="AC19" s="32"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
@@ -3318,7 +3309,7 @@
       </c>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="33"/>
+      <c r="AC20" s="32"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
@@ -3404,7 +3395,7 @@
       </c>
       <c r="AA21" s="19"/>
       <c r="AB21" s="19"/>
-      <c r="AC21" s="33"/>
+      <c r="AC21" s="32"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
@@ -3490,7 +3481,7 @@
       </c>
       <c r="AA22" s="19"/>
       <c r="AB22" s="19"/>
-      <c r="AC22" s="33"/>
+      <c r="AC22" s="32"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
@@ -3576,7 +3567,7 @@
       </c>
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
-      <c r="AC23" s="33"/>
+      <c r="AC23" s="32"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
@@ -3662,7 +3653,7 @@
       </c>
       <c r="AA24" s="19"/>
       <c r="AB24" s="19"/>
-      <c r="AC24" s="33"/>
+      <c r="AC24" s="32"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
@@ -3748,7 +3739,7 @@
       </c>
       <c r="AA25" s="19"/>
       <c r="AB25" s="19"/>
-      <c r="AC25" s="33"/>
+      <c r="AC25" s="32"/>
       <c r="AD25" s="19"/>
       <c r="AE25" s="19"/>
       <c r="AF25" s="19"/>
@@ -3834,7 +3825,7 @@
       </c>
       <c r="AA26" s="19"/>
       <c r="AB26" s="19"/>
-      <c r="AC26" s="33"/>
+      <c r="AC26" s="32"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
@@ -3920,7 +3911,7 @@
       </c>
       <c r="AA27" s="19"/>
       <c r="AB27" s="19"/>
-      <c r="AC27" s="33"/>
+      <c r="AC27" s="32"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
@@ -4006,7 +3997,7 @@
       </c>
       <c r="AA28" s="19"/>
       <c r="AB28" s="19"/>
-      <c r="AC28" s="33"/>
+      <c r="AC28" s="32"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
@@ -4092,7 +4083,7 @@
       </c>
       <c r="AA29" s="19"/>
       <c r="AB29" s="19"/>
-      <c r="AC29" s="33"/>
+      <c r="AC29" s="32"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
@@ -4178,7 +4169,7 @@
       </c>
       <c r="AA30" s="19"/>
       <c r="AB30" s="19"/>
-      <c r="AC30" s="33"/>
+      <c r="AC30" s="32"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
@@ -4264,7 +4255,7 @@
       </c>
       <c r="AA31" s="19"/>
       <c r="AB31" s="19"/>
-      <c r="AC31" s="33"/>
+      <c r="AC31" s="32"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
@@ -4350,7 +4341,7 @@
       </c>
       <c r="AA32" s="19"/>
       <c r="AB32" s="19"/>
-      <c r="AC32" s="33"/>
+      <c r="AC32" s="32"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
@@ -4436,7 +4427,7 @@
       </c>
       <c r="AA33" s="19"/>
       <c r="AB33" s="19"/>
-      <c r="AC33" s="33"/>
+      <c r="AC33" s="32"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
@@ -4522,7 +4513,7 @@
       </c>
       <c r="AA34" s="19"/>
       <c r="AB34" s="19"/>
-      <c r="AC34" s="33"/>
+      <c r="AC34" s="32"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
@@ -4608,7 +4599,7 @@
       </c>
       <c r="AA35" s="19"/>
       <c r="AB35" s="19"/>
-      <c r="AC35" s="33"/>
+      <c r="AC35" s="32"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
@@ -4694,7 +4685,7 @@
       </c>
       <c r="AA36" s="19"/>
       <c r="AB36" s="19"/>
-      <c r="AC36" s="33"/>
+      <c r="AC36" s="32"/>
       <c r="AD36" s="19"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
@@ -4780,7 +4771,7 @@
       </c>
       <c r="AA37" s="19"/>
       <c r="AB37" s="19"/>
-      <c r="AC37" s="33"/>
+      <c r="AC37" s="32"/>
       <c r="AD37" s="19"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
@@ -4866,7 +4857,7 @@
       </c>
       <c r="AA38" s="19"/>
       <c r="AB38" s="19"/>
-      <c r="AC38" s="33"/>
+      <c r="AC38" s="32"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
@@ -4952,7 +4943,7 @@
       </c>
       <c r="AA39" s="19"/>
       <c r="AB39" s="19"/>
-      <c r="AC39" s="33"/>
+      <c r="AC39" s="32"/>
       <c r="AD39" s="19"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
@@ -5038,7 +5029,7 @@
       </c>
       <c r="AA40" s="19"/>
       <c r="AB40" s="19"/>
-      <c r="AC40" s="33"/>
+      <c r="AC40" s="32"/>
       <c r="AD40" s="19"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
@@ -5124,7 +5115,7 @@
       </c>
       <c r="AA41" s="19"/>
       <c r="AB41" s="19"/>
-      <c r="AC41" s="33"/>
+      <c r="AC41" s="32"/>
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
@@ -5210,7 +5201,7 @@
       </c>
       <c r="AA42" s="19"/>
       <c r="AB42" s="19"/>
-      <c r="AC42" s="33"/>
+      <c r="AC42" s="32"/>
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
@@ -5296,7 +5287,7 @@
       </c>
       <c r="AA43" s="19"/>
       <c r="AB43" s="19"/>
-      <c r="AC43" s="33"/>
+      <c r="AC43" s="32"/>
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
@@ -5382,7 +5373,7 @@
       </c>
       <c r="AA44" s="19"/>
       <c r="AB44" s="19"/>
-      <c r="AC44" s="33"/>
+      <c r="AC44" s="32"/>
       <c r="AD44" s="19"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
@@ -5468,7 +5459,7 @@
       </c>
       <c r="AA45" s="19"/>
       <c r="AB45" s="19"/>
-      <c r="AC45" s="33"/>
+      <c r="AC45" s="32"/>
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
@@ -5554,7 +5545,7 @@
       </c>
       <c r="AA46" s="19"/>
       <c r="AB46" s="19"/>
-      <c r="AC46" s="33"/>
+      <c r="AC46" s="32"/>
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
@@ -5640,7 +5631,7 @@
       </c>
       <c r="AA47" s="19"/>
       <c r="AB47" s="19"/>
-      <c r="AC47" s="33"/>
+      <c r="AC47" s="32"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
@@ -5726,7 +5717,7 @@
       </c>
       <c r="AA48" s="19"/>
       <c r="AB48" s="19"/>
-      <c r="AC48" s="33"/>
+      <c r="AC48" s="32"/>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
@@ -5812,7 +5803,7 @@
       </c>
       <c r="AA49" s="19"/>
       <c r="AB49" s="19"/>
-      <c r="AC49" s="33"/>
+      <c r="AC49" s="32"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
@@ -5898,7 +5889,7 @@
       </c>
       <c r="AA50" s="19"/>
       <c r="AB50" s="19"/>
-      <c r="AC50" s="33"/>
+      <c r="AC50" s="32"/>
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
@@ -5984,7 +5975,7 @@
       </c>
       <c r="AA51" s="19"/>
       <c r="AB51" s="19"/>
-      <c r="AC51" s="33"/>
+      <c r="AC51" s="32"/>
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
@@ -6070,7 +6061,7 @@
       </c>
       <c r="AA52" s="19"/>
       <c r="AB52" s="19"/>
-      <c r="AC52" s="33"/>
+      <c r="AC52" s="32"/>
       <c r="AD52" s="19"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
@@ -6156,7 +6147,7 @@
       </c>
       <c r="AA53" s="19"/>
       <c r="AB53" s="19"/>
-      <c r="AC53" s="33"/>
+      <c r="AC53" s="32"/>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
@@ -6242,7 +6233,7 @@
       </c>
       <c r="AA54" s="19"/>
       <c r="AB54" s="19"/>
-      <c r="AC54" s="33"/>
+      <c r="AC54" s="32"/>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
@@ -6328,7 +6319,7 @@
       </c>
       <c r="AA55" s="19"/>
       <c r="AB55" s="19"/>
-      <c r="AC55" s="33"/>
+      <c r="AC55" s="32"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
@@ -6414,7 +6405,7 @@
       </c>
       <c r="AA56" s="19"/>
       <c r="AB56" s="19"/>
-      <c r="AC56" s="33"/>
+      <c r="AC56" s="32"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
@@ -6500,7 +6491,7 @@
       </c>
       <c r="AA57" s="19"/>
       <c r="AB57" s="19"/>
-      <c r="AC57" s="33"/>
+      <c r="AC57" s="32"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
@@ -6586,7 +6577,7 @@
       </c>
       <c r="AA58" s="19"/>
       <c r="AB58" s="19"/>
-      <c r="AC58" s="33"/>
+      <c r="AC58" s="32"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
@@ -6672,7 +6663,7 @@
       </c>
       <c r="AA59" s="19"/>
       <c r="AB59" s="19"/>
-      <c r="AC59" s="33"/>
+      <c r="AC59" s="32"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
@@ -6758,7 +6749,7 @@
       </c>
       <c r="AA60" s="19"/>
       <c r="AB60" s="19"/>
-      <c r="AC60" s="33"/>
+      <c r="AC60" s="32"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
@@ -6844,7 +6835,7 @@
       </c>
       <c r="AA61" s="19"/>
       <c r="AB61" s="19"/>
-      <c r="AC61" s="33"/>
+      <c r="AC61" s="32"/>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
@@ -6930,7 +6921,7 @@
       </c>
       <c r="AA62" s="19"/>
       <c r="AB62" s="19"/>
-      <c r="AC62" s="33"/>
+      <c r="AC62" s="32"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
@@ -7016,7 +7007,7 @@
       </c>
       <c r="AA63" s="19"/>
       <c r="AB63" s="19"/>
-      <c r="AC63" s="33"/>
+      <c r="AC63" s="32"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
@@ -7102,7 +7093,7 @@
       </c>
       <c r="AA64" s="19"/>
       <c r="AB64" s="19"/>
-      <c r="AC64" s="33"/>
+      <c r="AC64" s="32"/>
       <c r="AD64" s="19"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
@@ -7188,7 +7179,7 @@
       </c>
       <c r="AA65" s="19"/>
       <c r="AB65" s="19"/>
-      <c r="AC65" s="33"/>
+      <c r="AC65" s="32"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
@@ -7274,7 +7265,7 @@
       </c>
       <c r="AA66" s="19"/>
       <c r="AB66" s="19"/>
-      <c r="AC66" s="33"/>
+      <c r="AC66" s="32"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
@@ -7360,7 +7351,7 @@
       </c>
       <c r="AA67" s="19"/>
       <c r="AB67" s="19"/>
-      <c r="AC67" s="33"/>
+      <c r="AC67" s="32"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
       <c r="AF67" s="19"/>
@@ -7446,7 +7437,7 @@
       </c>
       <c r="AA68" s="19"/>
       <c r="AB68" s="19"/>
-      <c r="AC68" s="33"/>
+      <c r="AC68" s="32"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
@@ -7532,7 +7523,7 @@
       </c>
       <c r="AA69" s="19"/>
       <c r="AB69" s="19"/>
-      <c r="AC69" s="33"/>
+      <c r="AC69" s="32"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
       <c r="AF69" s="19"/>
@@ -7618,7 +7609,7 @@
       </c>
       <c r="AA70" s="19"/>
       <c r="AB70" s="19"/>
-      <c r="AC70" s="33"/>
+      <c r="AC70" s="32"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
       <c r="AF70" s="19"/>
@@ -7704,7 +7695,7 @@
       </c>
       <c r="AA71" s="19"/>
       <c r="AB71" s="19"/>
-      <c r="AC71" s="33"/>
+      <c r="AC71" s="32"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
@@ -7790,7 +7781,7 @@
       </c>
       <c r="AA72" s="19"/>
       <c r="AB72" s="19"/>
-      <c r="AC72" s="33"/>
+      <c r="AC72" s="32"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
@@ -7876,7 +7867,7 @@
       </c>
       <c r="AA73" s="19"/>
       <c r="AB73" s="19"/>
-      <c r="AC73" s="33"/>
+      <c r="AC73" s="32"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
@@ -7962,7 +7953,7 @@
       </c>
       <c r="AA74" s="19"/>
       <c r="AB74" s="19"/>
-      <c r="AC74" s="33"/>
+      <c r="AC74" s="32"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
@@ -8048,7 +8039,7 @@
       </c>
       <c r="AA75" s="19"/>
       <c r="AB75" s="19"/>
-      <c r="AC75" s="33"/>
+      <c r="AC75" s="32"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
@@ -8134,7 +8125,7 @@
       </c>
       <c r="AA76" s="19"/>
       <c r="AB76" s="19"/>
-      <c r="AC76" s="33"/>
+      <c r="AC76" s="32"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
       <c r="AF76" s="19"/>
@@ -8220,7 +8211,7 @@
       </c>
       <c r="AA77" s="19"/>
       <c r="AB77" s="19"/>
-      <c r="AC77" s="33"/>
+      <c r="AC77" s="32"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
       <c r="AF77" s="19"/>
@@ -8306,7 +8297,7 @@
       </c>
       <c r="AA78" s="19"/>
       <c r="AB78" s="19"/>
-      <c r="AC78" s="33"/>
+      <c r="AC78" s="32"/>
       <c r="AD78" s="19"/>
       <c r="AE78" s="19"/>
       <c r="AF78" s="19"/>
@@ -8392,7 +8383,7 @@
       </c>
       <c r="AA79" s="19"/>
       <c r="AB79" s="19"/>
-      <c r="AC79" s="33"/>
+      <c r="AC79" s="32"/>
       <c r="AD79" s="19"/>
       <c r="AE79" s="19"/>
       <c r="AF79" s="19"/>
@@ -8478,7 +8469,7 @@
       </c>
       <c r="AA80" s="19"/>
       <c r="AB80" s="19"/>
-      <c r="AC80" s="33"/>
+      <c r="AC80" s="32"/>
       <c r="AD80" s="19"/>
       <c r="AE80" s="19"/>
       <c r="AF80" s="19"/>
@@ -8564,7 +8555,7 @@
       </c>
       <c r="AA81" s="19"/>
       <c r="AB81" s="19"/>
-      <c r="AC81" s="33"/>
+      <c r="AC81" s="32"/>
       <c r="AD81" s="19"/>
       <c r="AE81" s="19"/>
       <c r="AF81" s="19"/>
@@ -8650,7 +8641,7 @@
       </c>
       <c r="AA82" s="19"/>
       <c r="AB82" s="19"/>
-      <c r="AC82" s="33"/>
+      <c r="AC82" s="32"/>
       <c r="AD82" s="19"/>
       <c r="AE82" s="19"/>
       <c r="AF82" s="19"/>
@@ -8736,7 +8727,7 @@
       </c>
       <c r="AA83" s="19"/>
       <c r="AB83" s="19"/>
-      <c r="AC83" s="33"/>
+      <c r="AC83" s="32"/>
       <c r="AD83" s="19"/>
       <c r="AE83" s="19"/>
       <c r="AF83" s="19"/>
@@ -8822,7 +8813,7 @@
       </c>
       <c r="AA84" s="19"/>
       <c r="AB84" s="19"/>
-      <c r="AC84" s="33"/>
+      <c r="AC84" s="32"/>
       <c r="AD84" s="19"/>
       <c r="AE84" s="19"/>
       <c r="AF84" s="19"/>
@@ -8908,7 +8899,7 @@
       </c>
       <c r="AA85" s="19"/>
       <c r="AB85" s="19"/>
-      <c r="AC85" s="33"/>
+      <c r="AC85" s="32"/>
       <c r="AD85" s="19"/>
       <c r="AE85" s="19"/>
       <c r="AF85" s="19"/>
@@ -8994,7 +8985,7 @@
       </c>
       <c r="AA86" s="19"/>
       <c r="AB86" s="19"/>
-      <c r="AC86" s="33"/>
+      <c r="AC86" s="32"/>
       <c r="AD86" s="19"/>
       <c r="AE86" s="19"/>
       <c r="AF86" s="19"/>
@@ -9080,7 +9071,7 @@
       </c>
       <c r="AA87" s="19"/>
       <c r="AB87" s="19"/>
-      <c r="AC87" s="33"/>
+      <c r="AC87" s="32"/>
       <c r="AD87" s="19"/>
       <c r="AE87" s="19"/>
       <c r="AF87" s="19"/>
@@ -9166,7 +9157,7 @@
       </c>
       <c r="AA88" s="19"/>
       <c r="AB88" s="19"/>
-      <c r="AC88" s="33"/>
+      <c r="AC88" s="32"/>
       <c r="AD88" s="19"/>
       <c r="AE88" s="19"/>
       <c r="AF88" s="19"/>
@@ -9252,7 +9243,7 @@
       </c>
       <c r="AA89" s="19"/>
       <c r="AB89" s="19"/>
-      <c r="AC89" s="33"/>
+      <c r="AC89" s="32"/>
       <c r="AD89" s="19"/>
       <c r="AE89" s="19"/>
       <c r="AF89" s="19"/>
@@ -9338,7 +9329,7 @@
       </c>
       <c r="AA90" s="19"/>
       <c r="AB90" s="19"/>
-      <c r="AC90" s="33"/>
+      <c r="AC90" s="32"/>
       <c r="AD90" s="19"/>
       <c r="AE90" s="19"/>
       <c r="AF90" s="19"/>
@@ -9424,7 +9415,7 @@
       </c>
       <c r="AA91" s="19"/>
       <c r="AB91" s="19"/>
-      <c r="AC91" s="33"/>
+      <c r="AC91" s="32"/>
       <c r="AD91" s="19"/>
       <c r="AE91" s="19"/>
       <c r="AF91" s="19"/>
@@ -9510,7 +9501,7 @@
       </c>
       <c r="AA92" s="19"/>
       <c r="AB92" s="19"/>
-      <c r="AC92" s="33"/>
+      <c r="AC92" s="32"/>
       <c r="AD92" s="19"/>
       <c r="AE92" s="19"/>
       <c r="AF92" s="19"/>
@@ -9596,7 +9587,7 @@
       </c>
       <c r="AA93" s="19"/>
       <c r="AB93" s="19"/>
-      <c r="AC93" s="33"/>
+      <c r="AC93" s="32"/>
       <c r="AD93" s="19"/>
       <c r="AE93" s="19"/>
       <c r="AF93" s="19"/>
@@ -9682,7 +9673,7 @@
       </c>
       <c r="AA94" s="19"/>
       <c r="AB94" s="19"/>
-      <c r="AC94" s="33"/>
+      <c r="AC94" s="32"/>
       <c r="AD94" s="19"/>
       <c r="AE94" s="19"/>
       <c r="AF94" s="19"/>
@@ -9768,7 +9759,7 @@
       </c>
       <c r="AA95" s="19"/>
       <c r="AB95" s="19"/>
-      <c r="AC95" s="33"/>
+      <c r="AC95" s="32"/>
       <c r="AD95" s="19"/>
       <c r="AE95" s="19"/>
       <c r="AF95" s="19"/>
@@ -9854,7 +9845,7 @@
       </c>
       <c r="AA96" s="19"/>
       <c r="AB96" s="19"/>
-      <c r="AC96" s="33"/>
+      <c r="AC96" s="32"/>
       <c r="AD96" s="19"/>
       <c r="AE96" s="19"/>
       <c r="AF96" s="19"/>
@@ -9940,7 +9931,7 @@
       </c>
       <c r="AA97" s="19"/>
       <c r="AB97" s="19"/>
-      <c r="AC97" s="33"/>
+      <c r="AC97" s="32"/>
       <c r="AD97" s="19"/>
       <c r="AE97" s="19"/>
       <c r="AF97" s="19"/>
@@ -10026,7 +10017,7 @@
       </c>
       <c r="AA98" s="19"/>
       <c r="AB98" s="19"/>
-      <c r="AC98" s="33"/>
+      <c r="AC98" s="32"/>
       <c r="AD98" s="19"/>
       <c r="AE98" s="19"/>
       <c r="AF98" s="19"/>
@@ -10112,7 +10103,7 @@
       </c>
       <c r="AA99" s="19"/>
       <c r="AB99" s="19"/>
-      <c r="AC99" s="33"/>
+      <c r="AC99" s="32"/>
       <c r="AD99" s="19"/>
       <c r="AE99" s="19"/>
       <c r="AF99" s="19"/>
@@ -10198,7 +10189,7 @@
       </c>
       <c r="AA100" s="19"/>
       <c r="AB100" s="19"/>
-      <c r="AC100" s="33"/>
+      <c r="AC100" s="32"/>
       <c r="AD100" s="19"/>
       <c r="AE100" s="19"/>
       <c r="AF100" s="19"/>
@@ -10284,7 +10275,7 @@
       </c>
       <c r="AA101" s="19"/>
       <c r="AB101" s="19"/>
-      <c r="AC101" s="33"/>
+      <c r="AC101" s="32"/>
       <c r="AD101" s="19"/>
       <c r="AE101" s="19"/>
       <c r="AF101" s="19"/>
@@ -10370,7 +10361,7 @@
       </c>
       <c r="AA102" s="19"/>
       <c r="AB102" s="19"/>
-      <c r="AC102" s="33"/>
+      <c r="AC102" s="32"/>
       <c r="AD102" s="19"/>
       <c r="AE102" s="19"/>
       <c r="AF102" s="19"/>
@@ -10456,7 +10447,7 @@
       </c>
       <c r="AA103" s="19"/>
       <c r="AB103" s="19"/>
-      <c r="AC103" s="33"/>
+      <c r="AC103" s="32"/>
       <c r="AD103" s="19"/>
       <c r="AE103" s="19"/>
       <c r="AF103" s="19"/>
@@ -10542,7 +10533,7 @@
       </c>
       <c r="AA104" s="19"/>
       <c r="AB104" s="19"/>
-      <c r="AC104" s="33"/>
+      <c r="AC104" s="32"/>
       <c r="AD104" s="19"/>
       <c r="AE104" s="19"/>
       <c r="AF104" s="19"/>
@@ -10628,7 +10619,7 @@
       </c>
       <c r="AA105" s="19"/>
       <c r="AB105" s="19"/>
-      <c r="AC105" s="33"/>
+      <c r="AC105" s="32"/>
       <c r="AD105" s="19"/>
       <c r="AE105" s="19"/>
       <c r="AF105" s="19"/>
@@ -10714,7 +10705,7 @@
       </c>
       <c r="AA106" s="19"/>
       <c r="AB106" s="19"/>
-      <c r="AC106" s="33"/>
+      <c r="AC106" s="32"/>
       <c r="AD106" s="19"/>
       <c r="AE106" s="19"/>
       <c r="AF106" s="19"/>
@@ -10800,7 +10791,7 @@
       </c>
       <c r="AA107" s="19"/>
       <c r="AB107" s="19"/>
-      <c r="AC107" s="33"/>
+      <c r="AC107" s="32"/>
       <c r="AD107" s="19"/>
       <c r="AE107" s="19"/>
       <c r="AF107" s="19"/>
@@ -10886,7 +10877,7 @@
       </c>
       <c r="AA108" s="19"/>
       <c r="AB108" s="19"/>
-      <c r="AC108" s="33"/>
+      <c r="AC108" s="32"/>
       <c r="AD108" s="19"/>
       <c r="AE108" s="19"/>
       <c r="AF108" s="19"/>
@@ -10972,7 +10963,7 @@
       </c>
       <c r="AA109" s="19"/>
       <c r="AB109" s="19"/>
-      <c r="AC109" s="33"/>
+      <c r="AC109" s="32"/>
       <c r="AD109" s="19"/>
       <c r="AE109" s="19"/>
       <c r="AF109" s="19"/>
@@ -11058,7 +11049,7 @@
       </c>
       <c r="AA110" s="19"/>
       <c r="AB110" s="19"/>
-      <c r="AC110" s="33"/>
+      <c r="AC110" s="32"/>
       <c r="AD110" s="19"/>
       <c r="AE110" s="19"/>
       <c r="AF110" s="19"/>
@@ -11144,7 +11135,7 @@
       </c>
       <c r="AA111" s="19"/>
       <c r="AB111" s="19"/>
-      <c r="AC111" s="33"/>
+      <c r="AC111" s="32"/>
       <c r="AD111" s="19"/>
       <c r="AE111" s="19"/>
       <c r="AF111" s="19"/>
@@ -11230,7 +11221,7 @@
       </c>
       <c r="AA112" s="19"/>
       <c r="AB112" s="19"/>
-      <c r="AC112" s="33"/>
+      <c r="AC112" s="32"/>
       <c r="AD112" s="19"/>
       <c r="AE112" s="19"/>
       <c r="AF112" s="19"/>
@@ -11316,7 +11307,7 @@
       </c>
       <c r="AA113" s="19"/>
       <c r="AB113" s="19"/>
-      <c r="AC113" s="33"/>
+      <c r="AC113" s="32"/>
       <c r="AD113" s="19"/>
       <c r="AE113" s="19"/>
       <c r="AF113" s="19"/>
@@ -11402,7 +11393,7 @@
       </c>
       <c r="AA114" s="19"/>
       <c r="AB114" s="19"/>
-      <c r="AC114" s="33"/>
+      <c r="AC114" s="32"/>
       <c r="AD114" s="19"/>
       <c r="AE114" s="19"/>
       <c r="AF114" s="19"/>
@@ -11488,7 +11479,7 @@
       </c>
       <c r="AA115" s="19"/>
       <c r="AB115" s="19"/>
-      <c r="AC115" s="33"/>
+      <c r="AC115" s="32"/>
       <c r="AD115" s="19"/>
       <c r="AE115" s="19"/>
       <c r="AF115" s="19"/>
@@ -11574,7 +11565,7 @@
       </c>
       <c r="AA116" s="19"/>
       <c r="AB116" s="19"/>
-      <c r="AC116" s="33"/>
+      <c r="AC116" s="32"/>
       <c r="AD116" s="19"/>
       <c r="AE116" s="19"/>
       <c r="AF116" s="19"/>
@@ -11660,7 +11651,7 @@
       </c>
       <c r="AA117" s="19"/>
       <c r="AB117" s="19"/>
-      <c r="AC117" s="33"/>
+      <c r="AC117" s="32"/>
       <c r="AD117" s="19"/>
       <c r="AE117" s="19"/>
       <c r="AF117" s="19"/>
@@ -11746,7 +11737,7 @@
       </c>
       <c r="AA118" s="19"/>
       <c r="AB118" s="19"/>
-      <c r="AC118" s="33"/>
+      <c r="AC118" s="32"/>
       <c r="AD118" s="19"/>
       <c r="AE118" s="19"/>
       <c r="AF118" s="19"/>
@@ -11832,7 +11823,7 @@
       </c>
       <c r="AA119" s="19"/>
       <c r="AB119" s="19"/>
-      <c r="AC119" s="33"/>
+      <c r="AC119" s="32"/>
       <c r="AD119" s="19"/>
       <c r="AE119" s="19"/>
       <c r="AF119" s="19"/>
@@ -11918,7 +11909,7 @@
       </c>
       <c r="AA120" s="19"/>
       <c r="AB120" s="19"/>
-      <c r="AC120" s="33"/>
+      <c r="AC120" s="32"/>
       <c r="AD120" s="19"/>
       <c r="AE120" s="19"/>
       <c r="AF120" s="19"/>
@@ -12004,7 +11995,7 @@
       </c>
       <c r="AA121" s="19"/>
       <c r="AB121" s="19"/>
-      <c r="AC121" s="33"/>
+      <c r="AC121" s="32"/>
       <c r="AD121" s="19"/>
       <c r="AE121" s="19"/>
       <c r="AF121" s="19"/>
@@ -12090,7 +12081,7 @@
       </c>
       <c r="AA122" s="19"/>
       <c r="AB122" s="19"/>
-      <c r="AC122" s="33"/>
+      <c r="AC122" s="32"/>
       <c r="AD122" s="19"/>
       <c r="AE122" s="19"/>
       <c r="AF122" s="19"/>
@@ -12176,7 +12167,7 @@
       </c>
       <c r="AA123" s="19"/>
       <c r="AB123" s="19"/>
-      <c r="AC123" s="33"/>
+      <c r="AC123" s="32"/>
       <c r="AD123" s="19"/>
       <c r="AE123" s="19"/>
       <c r="AF123" s="19"/>
@@ -12262,7 +12253,7 @@
       </c>
       <c r="AA124" s="19"/>
       <c r="AB124" s="19"/>
-      <c r="AC124" s="33"/>
+      <c r="AC124" s="32"/>
       <c r="AD124" s="19"/>
       <c r="AE124" s="19"/>
       <c r="AF124" s="19"/>
@@ -12348,7 +12339,7 @@
       </c>
       <c r="AA125" s="19"/>
       <c r="AB125" s="19"/>
-      <c r="AC125" s="33"/>
+      <c r="AC125" s="32"/>
       <c r="AD125" s="19"/>
       <c r="AE125" s="19"/>
       <c r="AF125" s="19"/>
@@ -12434,7 +12425,7 @@
       </c>
       <c r="AA126" s="19"/>
       <c r="AB126" s="19"/>
-      <c r="AC126" s="33"/>
+      <c r="AC126" s="32"/>
       <c r="AD126" s="19"/>
       <c r="AE126" s="19"/>
       <c r="AF126" s="19"/>
@@ -12520,7 +12511,7 @@
       </c>
       <c r="AA127" s="19"/>
       <c r="AB127" s="19"/>
-      <c r="AC127" s="33"/>
+      <c r="AC127" s="32"/>
       <c r="AD127" s="19"/>
       <c r="AE127" s="19"/>
       <c r="AF127" s="19"/>
@@ -12606,7 +12597,7 @@
       </c>
       <c r="AA128" s="19"/>
       <c r="AB128" s="19"/>
-      <c r="AC128" s="33"/>
+      <c r="AC128" s="32"/>
       <c r="AD128" s="19"/>
       <c r="AE128" s="19"/>
       <c r="AF128" s="19"/>
@@ -12692,7 +12683,7 @@
       </c>
       <c r="AA129" s="19"/>
       <c r="AB129" s="19"/>
-      <c r="AC129" s="33"/>
+      <c r="AC129" s="32"/>
       <c r="AD129" s="19"/>
       <c r="AE129" s="19"/>
       <c r="AF129" s="19"/>
@@ -12778,7 +12769,7 @@
       </c>
       <c r="AA130" s="19"/>
       <c r="AB130" s="19"/>
-      <c r="AC130" s="33"/>
+      <c r="AC130" s="32"/>
       <c r="AD130" s="19"/>
       <c r="AE130" s="19"/>
       <c r="AF130" s="19"/>
@@ -12864,7 +12855,7 @@
       </c>
       <c r="AA131" s="19"/>
       <c r="AB131" s="19"/>
-      <c r="AC131" s="33"/>
+      <c r="AC131" s="32"/>
       <c r="AD131" s="19"/>
       <c r="AE131" s="19"/>
       <c r="AF131" s="19"/>
@@ -12950,7 +12941,7 @@
       </c>
       <c r="AA132" s="19"/>
       <c r="AB132" s="19"/>
-      <c r="AC132" s="33"/>
+      <c r="AC132" s="32"/>
       <c r="AD132" s="19"/>
       <c r="AE132" s="19"/>
       <c r="AF132" s="19"/>
@@ -13036,7 +13027,7 @@
       </c>
       <c r="AA133" s="19"/>
       <c r="AB133" s="19"/>
-      <c r="AC133" s="33"/>
+      <c r="AC133" s="32"/>
       <c r="AD133" s="19"/>
       <c r="AE133" s="19"/>
       <c r="AF133" s="19"/>
@@ -13122,7 +13113,7 @@
       </c>
       <c r="AA134" s="19"/>
       <c r="AB134" s="19"/>
-      <c r="AC134" s="33"/>
+      <c r="AC134" s="32"/>
       <c r="AD134" s="19"/>
       <c r="AE134" s="19"/>
       <c r="AF134" s="19"/>
@@ -13208,7 +13199,7 @@
       </c>
       <c r="AA135" s="19"/>
       <c r="AB135" s="19"/>
-      <c r="AC135" s="33"/>
+      <c r="AC135" s="32"/>
       <c r="AD135" s="19"/>
       <c r="AE135" s="19"/>
       <c r="AF135" s="19"/>
@@ -13294,7 +13285,7 @@
       </c>
       <c r="AA136" s="19"/>
       <c r="AB136" s="19"/>
-      <c r="AC136" s="33"/>
+      <c r="AC136" s="32"/>
       <c r="AD136" s="19"/>
       <c r="AE136" s="19"/>
       <c r="AF136" s="19"/>
@@ -13380,7 +13371,7 @@
       </c>
       <c r="AA137" s="19"/>
       <c r="AB137" s="19"/>
-      <c r="AC137" s="33"/>
+      <c r="AC137" s="32"/>
       <c r="AD137" s="19"/>
       <c r="AE137" s="19"/>
       <c r="AF137" s="19"/>
@@ -13466,7 +13457,7 @@
       </c>
       <c r="AA138" s="19"/>
       <c r="AB138" s="19"/>
-      <c r="AC138" s="33"/>
+      <c r="AC138" s="32"/>
       <c r="AD138" s="19"/>
       <c r="AE138" s="19"/>
       <c r="AF138" s="19"/>
@@ -13552,7 +13543,7 @@
       </c>
       <c r="AA139" s="19"/>
       <c r="AB139" s="19"/>
-      <c r="AC139" s="33"/>
+      <c r="AC139" s="32"/>
       <c r="AD139" s="19"/>
       <c r="AE139" s="19"/>
       <c r="AF139" s="19"/>
@@ -13638,7 +13629,7 @@
       </c>
       <c r="AA140" s="19"/>
       <c r="AB140" s="19"/>
-      <c r="AC140" s="33"/>
+      <c r="AC140" s="32"/>
       <c r="AD140" s="19"/>
       <c r="AE140" s="19"/>
       <c r="AF140" s="19"/>
@@ -13724,7 +13715,7 @@
       </c>
       <c r="AA141" s="19"/>
       <c r="AB141" s="19"/>
-      <c r="AC141" s="33"/>
+      <c r="AC141" s="32"/>
       <c r="AD141" s="19"/>
       <c r="AE141" s="19"/>
       <c r="AF141" s="19"/>
@@ -13810,7 +13801,7 @@
       </c>
       <c r="AA142" s="19"/>
       <c r="AB142" s="19"/>
-      <c r="AC142" s="33"/>
+      <c r="AC142" s="32"/>
       <c r="AD142" s="19"/>
       <c r="AE142" s="19"/>
       <c r="AF142" s="19"/>
@@ -13896,7 +13887,7 @@
       </c>
       <c r="AA143" s="19"/>
       <c r="AB143" s="19"/>
-      <c r="AC143" s="33"/>
+      <c r="AC143" s="32"/>
       <c r="AD143" s="19"/>
       <c r="AE143" s="19"/>
       <c r="AF143" s="19"/>
@@ -13982,7 +13973,7 @@
       </c>
       <c r="AA144" s="19"/>
       <c r="AB144" s="19"/>
-      <c r="AC144" s="33"/>
+      <c r="AC144" s="32"/>
       <c r="AD144" s="19"/>
       <c r="AE144" s="19"/>
       <c r="AF144" s="19"/>
@@ -14068,7 +14059,7 @@
       </c>
       <c r="AA145" s="19"/>
       <c r="AB145" s="19"/>
-      <c r="AC145" s="33"/>
+      <c r="AC145" s="32"/>
       <c r="AD145" s="19"/>
       <c r="AE145" s="19"/>
       <c r="AF145" s="19"/>
@@ -14154,7 +14145,7 @@
       </c>
       <c r="AA146" s="19"/>
       <c r="AB146" s="19"/>
-      <c r="AC146" s="33"/>
+      <c r="AC146" s="32"/>
       <c r="AD146" s="19"/>
       <c r="AE146" s="19"/>
       <c r="AF146" s="19"/>
@@ -14240,7 +14231,7 @@
       </c>
       <c r="AA147" s="19"/>
       <c r="AB147" s="19"/>
-      <c r="AC147" s="33"/>
+      <c r="AC147" s="32"/>
       <c r="AD147" s="19"/>
       <c r="AE147" s="19"/>
       <c r="AF147" s="19"/>
@@ -14326,7 +14317,7 @@
       </c>
       <c r="AA148" s="19"/>
       <c r="AB148" s="19"/>
-      <c r="AC148" s="33"/>
+      <c r="AC148" s="32"/>
       <c r="AD148" s="19"/>
       <c r="AE148" s="19"/>
       <c r="AF148" s="19"/>
@@ -14412,7 +14403,7 @@
       </c>
       <c r="AA149" s="19"/>
       <c r="AB149" s="19"/>
-      <c r="AC149" s="33"/>
+      <c r="AC149" s="32"/>
       <c r="AD149" s="19"/>
       <c r="AE149" s="19"/>
       <c r="AF149" s="19"/>
@@ -14498,7 +14489,7 @@
       </c>
       <c r="AA150" s="19"/>
       <c r="AB150" s="19"/>
-      <c r="AC150" s="33"/>
+      <c r="AC150" s="32"/>
       <c r="AD150" s="19"/>
       <c r="AE150" s="19"/>
       <c r="AF150" s="19"/>
@@ -14584,7 +14575,7 @@
       </c>
       <c r="AA151" s="19"/>
       <c r="AB151" s="19"/>
-      <c r="AC151" s="33"/>
+      <c r="AC151" s="32"/>
       <c r="AD151" s="19"/>
       <c r="AE151" s="19"/>
       <c r="AF151" s="19"/>
@@ -14670,7 +14661,7 @@
       </c>
       <c r="AA152" s="19"/>
       <c r="AB152" s="19"/>
-      <c r="AC152" s="33"/>
+      <c r="AC152" s="32"/>
       <c r="AD152" s="19"/>
       <c r="AE152" s="19"/>
       <c r="AF152" s="19"/>
@@ -14756,7 +14747,7 @@
       </c>
       <c r="AA153" s="19"/>
       <c r="AB153" s="19"/>
-      <c r="AC153" s="33"/>
+      <c r="AC153" s="32"/>
       <c r="AD153" s="19"/>
       <c r="AE153" s="19"/>
       <c r="AF153" s="19"/>
@@ -14842,7 +14833,7 @@
       </c>
       <c r="AA154" s="19"/>
       <c r="AB154" s="19"/>
-      <c r="AC154" s="33"/>
+      <c r="AC154" s="32"/>
       <c r="AD154" s="19"/>
       <c r="AE154" s="19"/>
       <c r="AF154" s="19"/>
@@ -14928,7 +14919,7 @@
       </c>
       <c r="AA155" s="19"/>
       <c r="AB155" s="19"/>
-      <c r="AC155" s="33"/>
+      <c r="AC155" s="32"/>
       <c r="AD155" s="19"/>
       <c r="AE155" s="19"/>
       <c r="AF155" s="19"/>
@@ -15014,7 +15005,7 @@
       </c>
       <c r="AA156" s="19"/>
       <c r="AB156" s="19"/>
-      <c r="AC156" s="33"/>
+      <c r="AC156" s="32"/>
       <c r="AD156" s="19"/>
       <c r="AE156" s="19"/>
       <c r="AF156" s="19"/>
@@ -15100,7 +15091,7 @@
       </c>
       <c r="AA157" s="19"/>
       <c r="AB157" s="19"/>
-      <c r="AC157" s="33"/>
+      <c r="AC157" s="32"/>
       <c r="AD157" s="19"/>
       <c r="AE157" s="19"/>
       <c r="AF157" s="19"/>
@@ -15186,7 +15177,7 @@
       </c>
       <c r="AA158" s="19"/>
       <c r="AB158" s="19"/>
-      <c r="AC158" s="33"/>
+      <c r="AC158" s="32"/>
       <c r="AD158" s="19"/>
       <c r="AE158" s="19"/>
       <c r="AF158" s="19"/>
@@ -15272,7 +15263,7 @@
       </c>
       <c r="AA159" s="19"/>
       <c r="AB159" s="19"/>
-      <c r="AC159" s="33"/>
+      <c r="AC159" s="32"/>
       <c r="AD159" s="19"/>
       <c r="AE159" s="19"/>
       <c r="AF159" s="19"/>
@@ -15358,7 +15349,7 @@
       </c>
       <c r="AA160" s="19"/>
       <c r="AB160" s="19"/>
-      <c r="AC160" s="33"/>
+      <c r="AC160" s="32"/>
       <c r="AD160" s="19"/>
       <c r="AE160" s="19"/>
       <c r="AF160" s="19"/>
@@ -15444,7 +15435,7 @@
       </c>
       <c r="AA161" s="19"/>
       <c r="AB161" s="19"/>
-      <c r="AC161" s="33"/>
+      <c r="AC161" s="32"/>
       <c r="AD161" s="19"/>
       <c r="AE161" s="19"/>
       <c r="AF161" s="19"/>
@@ -15530,7 +15521,7 @@
       </c>
       <c r="AA162" s="19"/>
       <c r="AB162" s="19"/>
-      <c r="AC162" s="33"/>
+      <c r="AC162" s="32"/>
       <c r="AD162" s="19"/>
       <c r="AE162" s="19"/>
       <c r="AF162" s="19"/>
@@ -15616,7 +15607,7 @@
       </c>
       <c r="AA163" s="19"/>
       <c r="AB163" s="19"/>
-      <c r="AC163" s="33"/>
+      <c r="AC163" s="32"/>
       <c r="AD163" s="19"/>
       <c r="AE163" s="19"/>
       <c r="AF163" s="19"/>
@@ -15702,7 +15693,7 @@
       </c>
       <c r="AA164" s="19"/>
       <c r="AB164" s="19"/>
-      <c r="AC164" s="33"/>
+      <c r="AC164" s="32"/>
       <c r="AD164" s="19"/>
       <c r="AE164" s="19"/>
       <c r="AF164" s="19"/>
@@ -15788,7 +15779,7 @@
       </c>
       <c r="AA165" s="19"/>
       <c r="AB165" s="19"/>
-      <c r="AC165" s="33"/>
+      <c r="AC165" s="32"/>
       <c r="AD165" s="19"/>
       <c r="AE165" s="19"/>
       <c r="AF165" s="19"/>
@@ -15874,7 +15865,7 @@
       </c>
       <c r="AA166" s="19"/>
       <c r="AB166" s="19"/>
-      <c r="AC166" s="33"/>
+      <c r="AC166" s="32"/>
       <c r="AD166" s="19"/>
       <c r="AE166" s="19"/>
       <c r="AF166" s="19"/>
@@ -15960,7 +15951,7 @@
       </c>
       <c r="AA167" s="19"/>
       <c r="AB167" s="19"/>
-      <c r="AC167" s="33"/>
+      <c r="AC167" s="32"/>
       <c r="AD167" s="19"/>
       <c r="AE167" s="19"/>
       <c r="AF167" s="19"/>
@@ -16046,7 +16037,7 @@
       </c>
       <c r="AA168" s="19"/>
       <c r="AB168" s="19"/>
-      <c r="AC168" s="33"/>
+      <c r="AC168" s="32"/>
       <c r="AD168" s="19"/>
       <c r="AE168" s="19"/>
       <c r="AF168" s="19"/>
@@ -16132,7 +16123,7 @@
       </c>
       <c r="AA169" s="19"/>
       <c r="AB169" s="19"/>
-      <c r="AC169" s="33"/>
+      <c r="AC169" s="32"/>
       <c r="AD169" s="19"/>
       <c r="AE169" s="19"/>
       <c r="AF169" s="19"/>
@@ -16218,7 +16209,7 @@
       </c>
       <c r="AA170" s="19"/>
       <c r="AB170" s="19"/>
-      <c r="AC170" s="33"/>
+      <c r="AC170" s="32"/>
       <c r="AD170" s="19"/>
       <c r="AE170" s="19"/>
       <c r="AF170" s="19"/>
@@ -16304,7 +16295,7 @@
       </c>
       <c r="AA171" s="19"/>
       <c r="AB171" s="19"/>
-      <c r="AC171" s="33"/>
+      <c r="AC171" s="32"/>
       <c r="AD171" s="19"/>
       <c r="AE171" s="19"/>
       <c r="AF171" s="19"/>
@@ -16390,7 +16381,7 @@
       </c>
       <c r="AA172" s="19"/>
       <c r="AB172" s="19"/>
-      <c r="AC172" s="33"/>
+      <c r="AC172" s="32"/>
       <c r="AD172" s="19"/>
       <c r="AE172" s="19"/>
       <c r="AF172" s="19"/>
@@ -16476,7 +16467,7 @@
       </c>
       <c r="AA173" s="19"/>
       <c r="AB173" s="19"/>
-      <c r="AC173" s="33"/>
+      <c r="AC173" s="32"/>
       <c r="AD173" s="19"/>
       <c r="AE173" s="19"/>
       <c r="AF173" s="19"/>
@@ -16562,7 +16553,7 @@
       </c>
       <c r="AA174" s="19"/>
       <c r="AB174" s="19"/>
-      <c r="AC174" s="33"/>
+      <c r="AC174" s="32"/>
       <c r="AD174" s="19"/>
       <c r="AE174" s="19"/>
       <c r="AF174" s="19"/>
@@ -16648,7 +16639,7 @@
       </c>
       <c r="AA175" s="19"/>
       <c r="AB175" s="19"/>
-      <c r="AC175" s="33"/>
+      <c r="AC175" s="32"/>
       <c r="AD175" s="19"/>
       <c r="AE175" s="19"/>
       <c r="AF175" s="19"/>
@@ -16734,7 +16725,7 @@
       </c>
       <c r="AA176" s="19"/>
       <c r="AB176" s="19"/>
-      <c r="AC176" s="33"/>
+      <c r="AC176" s="32"/>
       <c r="AD176" s="19"/>
       <c r="AE176" s="19"/>
       <c r="AF176" s="19"/>
@@ -16820,7 +16811,7 @@
       </c>
       <c r="AA177" s="19"/>
       <c r="AB177" s="19"/>
-      <c r="AC177" s="33"/>
+      <c r="AC177" s="32"/>
       <c r="AD177" s="19"/>
       <c r="AE177" s="19"/>
       <c r="AF177" s="19"/>
@@ -16906,7 +16897,7 @@
       </c>
       <c r="AA178" s="19"/>
       <c r="AB178" s="19"/>
-      <c r="AC178" s="33"/>
+      <c r="AC178" s="32"/>
       <c r="AD178" s="19"/>
       <c r="AE178" s="19"/>
       <c r="AF178" s="19"/>
@@ -16992,7 +16983,7 @@
       </c>
       <c r="AA179" s="19"/>
       <c r="AB179" s="19"/>
-      <c r="AC179" s="33"/>
+      <c r="AC179" s="32"/>
       <c r="AD179" s="19"/>
       <c r="AE179" s="19"/>
       <c r="AF179" s="19"/>
@@ -17078,7 +17069,7 @@
       </c>
       <c r="AA180" s="19"/>
       <c r="AB180" s="19"/>
-      <c r="AC180" s="33"/>
+      <c r="AC180" s="32"/>
       <c r="AD180" s="19"/>
       <c r="AE180" s="19"/>
       <c r="AF180" s="19"/>
@@ -17164,7 +17155,7 @@
       </c>
       <c r="AA181" s="19"/>
       <c r="AB181" s="19"/>
-      <c r="AC181" s="33"/>
+      <c r="AC181" s="32"/>
       <c r="AD181" s="19"/>
       <c r="AE181" s="19"/>
       <c r="AF181" s="19"/>
@@ -17250,7 +17241,7 @@
       </c>
       <c r="AA182" s="19"/>
       <c r="AB182" s="19"/>
-      <c r="AC182" s="33"/>
+      <c r="AC182" s="32"/>
       <c r="AD182" s="19"/>
       <c r="AE182" s="19"/>
       <c r="AF182" s="19"/>
@@ -17336,7 +17327,7 @@
       </c>
       <c r="AA183" s="19"/>
       <c r="AB183" s="19"/>
-      <c r="AC183" s="33"/>
+      <c r="AC183" s="32"/>
       <c r="AD183" s="19"/>
       <c r="AE183" s="19"/>
       <c r="AF183" s="19"/>
@@ -17422,7 +17413,7 @@
       </c>
       <c r="AA184" s="19"/>
       <c r="AB184" s="19"/>
-      <c r="AC184" s="33"/>
+      <c r="AC184" s="32"/>
       <c r="AD184" s="19"/>
       <c r="AE184" s="19"/>
       <c r="AF184" s="19"/>
@@ -17508,7 +17499,7 @@
       </c>
       <c r="AA185" s="19"/>
       <c r="AB185" s="19"/>
-      <c r="AC185" s="33"/>
+      <c r="AC185" s="32"/>
       <c r="AD185" s="19"/>
       <c r="AE185" s="19"/>
       <c r="AF185" s="19"/>
@@ -17594,7 +17585,7 @@
       </c>
       <c r="AA186" s="19"/>
       <c r="AB186" s="19"/>
-      <c r="AC186" s="33"/>
+      <c r="AC186" s="32"/>
       <c r="AD186" s="19"/>
       <c r="AE186" s="19"/>
       <c r="AF186" s="19"/>
@@ -17680,7 +17671,7 @@
       </c>
       <c r="AA187" s="19"/>
       <c r="AB187" s="19"/>
-      <c r="AC187" s="33"/>
+      <c r="AC187" s="32"/>
       <c r="AD187" s="19"/>
       <c r="AE187" s="19"/>
       <c r="AF187" s="19"/>
@@ -17766,7 +17757,7 @@
       </c>
       <c r="AA188" s="19"/>
       <c r="AB188" s="19"/>
-      <c r="AC188" s="33"/>
+      <c r="AC188" s="32"/>
       <c r="AD188" s="19"/>
       <c r="AE188" s="19"/>
       <c r="AF188" s="19"/>
@@ -17852,7 +17843,7 @@
       </c>
       <c r="AA189" s="19"/>
       <c r="AB189" s="19"/>
-      <c r="AC189" s="33"/>
+      <c r="AC189" s="32"/>
       <c r="AD189" s="19"/>
       <c r="AE189" s="19"/>
       <c r="AF189" s="19"/>
@@ -17938,7 +17929,7 @@
       </c>
       <c r="AA190" s="19"/>
       <c r="AB190" s="19"/>
-      <c r="AC190" s="33"/>
+      <c r="AC190" s="32"/>
       <c r="AD190" s="19"/>
       <c r="AE190" s="19"/>
       <c r="AF190" s="19"/>
@@ -18024,7 +18015,7 @@
       </c>
       <c r="AA191" s="19"/>
       <c r="AB191" s="19"/>
-      <c r="AC191" s="33"/>
+      <c r="AC191" s="32"/>
       <c r="AD191" s="19"/>
       <c r="AE191" s="19"/>
       <c r="AF191" s="19"/>
@@ -18110,7 +18101,7 @@
       </c>
       <c r="AA192" s="19"/>
       <c r="AB192" s="19"/>
-      <c r="AC192" s="33"/>
+      <c r="AC192" s="32"/>
       <c r="AD192" s="19"/>
       <c r="AE192" s="19"/>
       <c r="AF192" s="19"/>
@@ -18196,7 +18187,7 @@
       </c>
       <c r="AA193" s="19"/>
       <c r="AB193" s="19"/>
-      <c r="AC193" s="33"/>
+      <c r="AC193" s="32"/>
       <c r="AD193" s="19"/>
       <c r="AE193" s="19"/>
       <c r="AF193" s="19"/>
@@ -18282,7 +18273,7 @@
       </c>
       <c r="AA194" s="19"/>
       <c r="AB194" s="19"/>
-      <c r="AC194" s="33"/>
+      <c r="AC194" s="32"/>
       <c r="AD194" s="19"/>
       <c r="AE194" s="19"/>
       <c r="AF194" s="19"/>
@@ -18368,7 +18359,7 @@
       </c>
       <c r="AA195" s="19"/>
       <c r="AB195" s="19"/>
-      <c r="AC195" s="33"/>
+      <c r="AC195" s="32"/>
       <c r="AD195" s="19"/>
       <c r="AE195" s="19"/>
       <c r="AF195" s="19"/>
@@ -18454,7 +18445,7 @@
       </c>
       <c r="AA196" s="19"/>
       <c r="AB196" s="19"/>
-      <c r="AC196" s="33"/>
+      <c r="AC196" s="32"/>
       <c r="AD196" s="19"/>
       <c r="AE196" s="19"/>
       <c r="AF196" s="19"/>
@@ -18540,7 +18531,7 @@
       </c>
       <c r="AA197" s="19"/>
       <c r="AB197" s="19"/>
-      <c r="AC197" s="33"/>
+      <c r="AC197" s="32"/>
       <c r="AD197" s="19"/>
       <c r="AE197" s="19"/>
       <c r="AF197" s="19"/>
@@ -18626,7 +18617,7 @@
       </c>
       <c r="AA198" s="19"/>
       <c r="AB198" s="19"/>
-      <c r="AC198" s="33"/>
+      <c r="AC198" s="32"/>
       <c r="AD198" s="19"/>
       <c r="AE198" s="19"/>
       <c r="AF198" s="19"/>
@@ -18712,7 +18703,7 @@
       </c>
       <c r="AA199" s="19"/>
       <c r="AB199" s="19"/>
-      <c r="AC199" s="33"/>
+      <c r="AC199" s="32"/>
       <c r="AD199" s="19"/>
       <c r="AE199" s="19"/>
       <c r="AF199" s="19"/>
@@ -18798,7 +18789,7 @@
       </c>
       <c r="AA200" s="19"/>
       <c r="AB200" s="19"/>
-      <c r="AC200" s="33"/>
+      <c r="AC200" s="32"/>
       <c r="AD200" s="19"/>
       <c r="AE200" s="19"/>
       <c r="AF200" s="19"/>
@@ -18884,7 +18875,7 @@
       </c>
       <c r="AA201" s="19"/>
       <c r="AB201" s="19"/>
-      <c r="AC201" s="33"/>
+      <c r="AC201" s="32"/>
       <c r="AD201" s="19"/>
       <c r="AE201" s="19"/>
       <c r="AF201" s="19"/>
@@ -18970,7 +18961,7 @@
       </c>
       <c r="AA202" s="19"/>
       <c r="AB202" s="19"/>
-      <c r="AC202" s="33"/>
+      <c r="AC202" s="32"/>
       <c r="AD202" s="19"/>
       <c r="AE202" s="19"/>
       <c r="AF202" s="19"/>
@@ -19056,7 +19047,7 @@
       </c>
       <c r="AA203" s="19"/>
       <c r="AB203" s="19"/>
-      <c r="AC203" s="33"/>
+      <c r="AC203" s="32"/>
       <c r="AD203" s="19"/>
       <c r="AE203" s="19"/>
       <c r="AF203" s="19"/>
@@ -19142,7 +19133,7 @@
       </c>
       <c r="AA204" s="19"/>
       <c r="AB204" s="19"/>
-      <c r="AC204" s="33"/>
+      <c r="AC204" s="32"/>
       <c r="AD204" s="19"/>
       <c r="AE204" s="19"/>
       <c r="AF204" s="19"/>
@@ -19228,7 +19219,7 @@
       </c>
       <c r="AA205" s="19"/>
       <c r="AB205" s="19"/>
-      <c r="AC205" s="33"/>
+      <c r="AC205" s="32"/>
       <c r="AD205" s="19"/>
       <c r="AE205" s="19"/>
       <c r="AF205" s="19"/>
@@ -19314,7 +19305,7 @@
       </c>
       <c r="AA206" s="19"/>
       <c r="AB206" s="19"/>
-      <c r="AC206" s="33"/>
+      <c r="AC206" s="32"/>
       <c r="AD206" s="19"/>
       <c r="AE206" s="19"/>
       <c r="AF206" s="19"/>
@@ -19400,7 +19391,7 @@
       </c>
       <c r="AA207" s="19"/>
       <c r="AB207" s="19"/>
-      <c r="AC207" s="33"/>
+      <c r="AC207" s="32"/>
       <c r="AD207" s="19"/>
       <c r="AE207" s="19"/>
       <c r="AF207" s="19"/>
@@ -19486,7 +19477,7 @@
       </c>
       <c r="AA208" s="19"/>
       <c r="AB208" s="19"/>
-      <c r="AC208" s="33"/>
+      <c r="AC208" s="32"/>
       <c r="AD208" s="19"/>
       <c r="AE208" s="19"/>
       <c r="AF208" s="19"/>
@@ -19572,7 +19563,7 @@
       </c>
       <c r="AA209" s="19"/>
       <c r="AB209" s="19"/>
-      <c r="AC209" s="33"/>
+      <c r="AC209" s="32"/>
       <c r="AD209" s="19"/>
       <c r="AE209" s="19"/>
       <c r="AF209" s="19"/>
@@ -19658,7 +19649,7 @@
       </c>
       <c r="AA210" s="19"/>
       <c r="AB210" s="19"/>
-      <c r="AC210" s="33"/>
+      <c r="AC210" s="32"/>
       <c r="AD210" s="19"/>
       <c r="AE210" s="19"/>
       <c r="AF210" s="19"/>
@@ -19744,7 +19735,7 @@
       </c>
       <c r="AA211" s="19"/>
       <c r="AB211" s="19"/>
-      <c r="AC211" s="33"/>
+      <c r="AC211" s="32"/>
       <c r="AD211" s="19"/>
       <c r="AE211" s="19"/>
       <c r="AF211" s="19"/>
@@ -19830,7 +19821,7 @@
       </c>
       <c r="AA212" s="19"/>
       <c r="AB212" s="19"/>
-      <c r="AC212" s="33"/>
+      <c r="AC212" s="32"/>
       <c r="AD212" s="19"/>
       <c r="AE212" s="19"/>
       <c r="AF212" s="19"/>
@@ -19916,7 +19907,7 @@
       </c>
       <c r="AA213" s="19"/>
       <c r="AB213" s="19"/>
-      <c r="AC213" s="33"/>
+      <c r="AC213" s="32"/>
       <c r="AD213" s="19"/>
       <c r="AE213" s="19"/>
       <c r="AF213" s="19"/>
@@ -20002,7 +19993,7 @@
       </c>
       <c r="AA214" s="19"/>
       <c r="AB214" s="19"/>
-      <c r="AC214" s="33"/>
+      <c r="AC214" s="32"/>
       <c r="AD214" s="19"/>
       <c r="AE214" s="19"/>
       <c r="AF214" s="19"/>
@@ -20088,7 +20079,7 @@
       </c>
       <c r="AA215" s="19"/>
       <c r="AB215" s="19"/>
-      <c r="AC215" s="33"/>
+      <c r="AC215" s="32"/>
       <c r="AD215" s="19"/>
       <c r="AE215" s="19"/>
       <c r="AF215" s="19"/>
@@ -20174,7 +20165,7 @@
       </c>
       <c r="AA216" s="19"/>
       <c r="AB216" s="19"/>
-      <c r="AC216" s="33"/>
+      <c r="AC216" s="32"/>
       <c r="AD216" s="19"/>
       <c r="AE216" s="19"/>
       <c r="AF216" s="19"/>
@@ -20260,7 +20251,7 @@
       </c>
       <c r="AA217" s="19"/>
       <c r="AB217" s="19"/>
-      <c r="AC217" s="33"/>
+      <c r="AC217" s="32"/>
       <c r="AD217" s="19"/>
       <c r="AE217" s="19"/>
       <c r="AF217" s="19"/>
@@ -20346,7 +20337,7 @@
       </c>
       <c r="AA218" s="19"/>
       <c r="AB218" s="19"/>
-      <c r="AC218" s="33"/>
+      <c r="AC218" s="32"/>
       <c r="AD218" s="19"/>
       <c r="AE218" s="19"/>
       <c r="AF218" s="19"/>
@@ -20432,7 +20423,7 @@
       </c>
       <c r="AA219" s="19"/>
       <c r="AB219" s="19"/>
-      <c r="AC219" s="33"/>
+      <c r="AC219" s="32"/>
       <c r="AD219" s="19"/>
       <c r="AE219" s="19"/>
       <c r="AF219" s="19"/>
@@ -20518,7 +20509,7 @@
       </c>
       <c r="AA220" s="19"/>
       <c r="AB220" s="19"/>
-      <c r="AC220" s="33"/>
+      <c r="AC220" s="32"/>
       <c r="AD220" s="19"/>
       <c r="AE220" s="19"/>
       <c r="AF220" s="19"/>
@@ -20604,7 +20595,7 @@
       </c>
       <c r="AA221" s="19"/>
       <c r="AB221" s="19"/>
-      <c r="AC221" s="33"/>
+      <c r="AC221" s="32"/>
       <c r="AD221" s="19"/>
       <c r="AE221" s="19"/>
       <c r="AF221" s="19"/>
@@ -20690,7 +20681,7 @@
       </c>
       <c r="AA222" s="19"/>
       <c r="AB222" s="19"/>
-      <c r="AC222" s="33"/>
+      <c r="AC222" s="32"/>
       <c r="AD222" s="19"/>
       <c r="AE222" s="19"/>
       <c r="AF222" s="19"/>
@@ -20776,7 +20767,7 @@
       </c>
       <c r="AA223" s="19"/>
       <c r="AB223" s="19"/>
-      <c r="AC223" s="33"/>
+      <c r="AC223" s="32"/>
       <c r="AD223" s="19"/>
       <c r="AE223" s="19"/>
       <c r="AF223" s="19"/>
@@ -20862,7 +20853,7 @@
       </c>
       <c r="AA224" s="19"/>
       <c r="AB224" s="19"/>
-      <c r="AC224" s="33"/>
+      <c r="AC224" s="32"/>
       <c r="AD224" s="19"/>
       <c r="AE224" s="19"/>
       <c r="AF224" s="19"/>
@@ -20948,7 +20939,7 @@
       </c>
       <c r="AA225" s="19"/>
       <c r="AB225" s="19"/>
-      <c r="AC225" s="33"/>
+      <c r="AC225" s="32"/>
       <c r="AD225" s="19"/>
       <c r="AE225" s="19"/>
       <c r="AF225" s="19"/>
@@ -21034,7 +21025,7 @@
       </c>
       <c r="AA226" s="19"/>
       <c r="AB226" s="19"/>
-      <c r="AC226" s="33"/>
+      <c r="AC226" s="32"/>
       <c r="AD226" s="19"/>
       <c r="AE226" s="19"/>
       <c r="AF226" s="19"/>
@@ -21120,7 +21111,7 @@
       </c>
       <c r="AA227" s="19"/>
       <c r="AB227" s="19"/>
-      <c r="AC227" s="33"/>
+      <c r="AC227" s="32"/>
       <c r="AD227" s="19"/>
       <c r="AE227" s="19"/>
       <c r="AF227" s="19"/>
@@ -21206,7 +21197,7 @@
       </c>
       <c r="AA228" s="19"/>
       <c r="AB228" s="19"/>
-      <c r="AC228" s="33"/>
+      <c r="AC228" s="32"/>
       <c r="AD228" s="19"/>
       <c r="AE228" s="19"/>
       <c r="AF228" s="19"/>
@@ -21292,7 +21283,7 @@
       </c>
       <c r="AA229" s="19"/>
       <c r="AB229" s="19"/>
-      <c r="AC229" s="33"/>
+      <c r="AC229" s="32"/>
       <c r="AD229" s="19"/>
       <c r="AE229" s="19"/>
       <c r="AF229" s="19"/>
@@ -21378,7 +21369,7 @@
       </c>
       <c r="AA230" s="19"/>
       <c r="AB230" s="19"/>
-      <c r="AC230" s="33"/>
+      <c r="AC230" s="32"/>
       <c r="AD230" s="19"/>
       <c r="AE230" s="19"/>
       <c r="AF230" s="19"/>
@@ -21464,7 +21455,7 @@
       </c>
       <c r="AA231" s="19"/>
       <c r="AB231" s="19"/>
-      <c r="AC231" s="33"/>
+      <c r="AC231" s="32"/>
       <c r="AD231" s="19"/>
       <c r="AE231" s="19"/>
       <c r="AF231" s="19"/>
@@ -21550,7 +21541,7 @@
       </c>
       <c r="AA232" s="19"/>
       <c r="AB232" s="19"/>
-      <c r="AC232" s="33"/>
+      <c r="AC232" s="32"/>
       <c r="AD232" s="19"/>
       <c r="AE232" s="19"/>
       <c r="AF232" s="19"/>
@@ -21636,7 +21627,7 @@
       </c>
       <c r="AA233" s="19"/>
       <c r="AB233" s="19"/>
-      <c r="AC233" s="33"/>
+      <c r="AC233" s="32"/>
       <c r="AD233" s="19"/>
       <c r="AE233" s="19"/>
       <c r="AF233" s="19"/>
@@ -21722,7 +21713,7 @@
       </c>
       <c r="AA234" s="19"/>
       <c r="AB234" s="19"/>
-      <c r="AC234" s="33"/>
+      <c r="AC234" s="32"/>
       <c r="AD234" s="19"/>
       <c r="AE234" s="19"/>
       <c r="AF234" s="19"/>
@@ -21808,7 +21799,7 @@
       </c>
       <c r="AA235" s="19"/>
       <c r="AB235" s="19"/>
-      <c r="AC235" s="33"/>
+      <c r="AC235" s="32"/>
       <c r="AD235" s="19"/>
       <c r="AE235" s="19"/>
       <c r="AF235" s="19"/>
@@ -21894,7 +21885,7 @@
       </c>
       <c r="AA236" s="19"/>
       <c r="AB236" s="19"/>
-      <c r="AC236" s="33"/>
+      <c r="AC236" s="32"/>
       <c r="AD236" s="19"/>
       <c r="AE236" s="19"/>
       <c r="AF236" s="19"/>
@@ -21980,7 +21971,7 @@
       </c>
       <c r="AA237" s="19"/>
       <c r="AB237" s="19"/>
-      <c r="AC237" s="33"/>
+      <c r="AC237" s="32"/>
       <c r="AD237" s="19"/>
       <c r="AE237" s="19"/>
       <c r="AF237" s="19"/>
@@ -22066,7 +22057,7 @@
       </c>
       <c r="AA238" s="19"/>
       <c r="AB238" s="19"/>
-      <c r="AC238" s="33"/>
+      <c r="AC238" s="32"/>
       <c r="AD238" s="19"/>
       <c r="AE238" s="19"/>
       <c r="AF238" s="19"/>
@@ -22152,7 +22143,7 @@
       </c>
       <c r="AA239" s="19"/>
       <c r="AB239" s="19"/>
-      <c r="AC239" s="33"/>
+      <c r="AC239" s="32"/>
       <c r="AD239" s="19"/>
       <c r="AE239" s="19"/>
       <c r="AF239" s="19"/>
@@ -22238,7 +22229,7 @@
       </c>
       <c r="AA240" s="19"/>
       <c r="AB240" s="19"/>
-      <c r="AC240" s="33"/>
+      <c r="AC240" s="32"/>
       <c r="AD240" s="19"/>
       <c r="AE240" s="19"/>
       <c r="AF240" s="19"/>
@@ -22324,7 +22315,7 @@
       </c>
       <c r="AA241" s="19"/>
       <c r="AB241" s="19"/>
-      <c r="AC241" s="33"/>
+      <c r="AC241" s="32"/>
       <c r="AD241" s="19"/>
       <c r="AE241" s="19"/>
       <c r="AF241" s="19"/>
@@ -22410,7 +22401,7 @@
       </c>
       <c r="AA242" s="19"/>
       <c r="AB242" s="19"/>
-      <c r="AC242" s="33"/>
+      <c r="AC242" s="32"/>
       <c r="AD242" s="19"/>
       <c r="AE242" s="19"/>
       <c r="AF242" s="19"/>
@@ -22496,7 +22487,7 @@
       </c>
       <c r="AA243" s="19"/>
       <c r="AB243" s="19"/>
-      <c r="AC243" s="33"/>
+      <c r="AC243" s="32"/>
       <c r="AD243" s="19"/>
       <c r="AE243" s="19"/>
       <c r="AF243" s="19"/>
@@ -22582,7 +22573,7 @@
       </c>
       <c r="AA244" s="19"/>
       <c r="AB244" s="19"/>
-      <c r="AC244" s="33"/>
+      <c r="AC244" s="32"/>
       <c r="AD244" s="19"/>
       <c r="AE244" s="19"/>
       <c r="AF244" s="19"/>
@@ -22668,7 +22659,7 @@
       </c>
       <c r="AA245" s="19"/>
       <c r="AB245" s="19"/>
-      <c r="AC245" s="33"/>
+      <c r="AC245" s="32"/>
       <c r="AD245" s="19"/>
       <c r="AE245" s="19"/>
       <c r="AF245" s="19"/>
@@ -22754,7 +22745,7 @@
       </c>
       <c r="AA246" s="19"/>
       <c r="AB246" s="19"/>
-      <c r="AC246" s="33"/>
+      <c r="AC246" s="32"/>
       <c r="AD246" s="19"/>
       <c r="AE246" s="19"/>
       <c r="AF246" s="19"/>
@@ -22840,7 +22831,7 @@
       </c>
       <c r="AA247" s="19"/>
       <c r="AB247" s="19"/>
-      <c r="AC247" s="33"/>
+      <c r="AC247" s="32"/>
       <c r="AD247" s="19"/>
       <c r="AE247" s="19"/>
       <c r="AF247" s="19"/>
@@ -22926,7 +22917,7 @@
       </c>
       <c r="AA248" s="19"/>
       <c r="AB248" s="19"/>
-      <c r="AC248" s="33"/>
+      <c r="AC248" s="32"/>
       <c r="AD248" s="19"/>
       <c r="AE248" s="19"/>
       <c r="AF248" s="19"/>
@@ -23012,7 +23003,7 @@
       </c>
       <c r="AA249" s="19"/>
       <c r="AB249" s="19"/>
-      <c r="AC249" s="33"/>
+      <c r="AC249" s="32"/>
       <c r="AD249" s="19"/>
       <c r="AE249" s="19"/>
       <c r="AF249" s="19"/>
@@ -23098,7 +23089,7 @@
       </c>
       <c r="AA250" s="19"/>
       <c r="AB250" s="19"/>
-      <c r="AC250" s="33"/>
+      <c r="AC250" s="32"/>
       <c r="AD250" s="19"/>
       <c r="AE250" s="19"/>
       <c r="AF250" s="19"/>
@@ -23184,7 +23175,7 @@
       </c>
       <c r="AA251" s="19"/>
       <c r="AB251" s="19"/>
-      <c r="AC251" s="33"/>
+      <c r="AC251" s="32"/>
       <c r="AD251" s="19"/>
       <c r="AE251" s="19"/>
       <c r="AF251" s="19"/>
@@ -23270,7 +23261,7 @@
       </c>
       <c r="AA252" s="19"/>
       <c r="AB252" s="19"/>
-      <c r="AC252" s="33"/>
+      <c r="AC252" s="32"/>
       <c r="AD252" s="19"/>
       <c r="AE252" s="19"/>
       <c r="AF252" s="19"/>
@@ -23356,7 +23347,7 @@
       </c>
       <c r="AA253" s="19"/>
       <c r="AB253" s="19"/>
-      <c r="AC253" s="33"/>
+      <c r="AC253" s="32"/>
       <c r="AD253" s="19"/>
       <c r="AE253" s="19"/>
       <c r="AF253" s="19"/>
@@ -23442,7 +23433,7 @@
       </c>
       <c r="AA254" s="19"/>
       <c r="AB254" s="19"/>
-      <c r="AC254" s="33"/>
+      <c r="AC254" s="32"/>
       <c r="AD254" s="19"/>
       <c r="AE254" s="19"/>
       <c r="AF254" s="19"/>
@@ -23528,7 +23519,7 @@
       </c>
       <c r="AA255" s="19"/>
       <c r="AB255" s="19"/>
-      <c r="AC255" s="33"/>
+      <c r="AC255" s="32"/>
       <c r="AD255" s="19"/>
       <c r="AE255" s="19"/>
       <c r="AF255" s="19"/>
@@ -23614,7 +23605,7 @@
       </c>
       <c r="AA256" s="19"/>
       <c r="AB256" s="19"/>
-      <c r="AC256" s="33"/>
+      <c r="AC256" s="32"/>
       <c r="AD256" s="19"/>
       <c r="AE256" s="19"/>
       <c r="AF256" s="19"/>
@@ -23700,7 +23691,7 @@
       </c>
       <c r="AA257" s="19"/>
       <c r="AB257" s="19"/>
-      <c r="AC257" s="33"/>
+      <c r="AC257" s="32"/>
       <c r="AD257" s="19"/>
       <c r="AE257" s="19"/>
       <c r="AF257" s="19"/>
@@ -23786,7 +23777,7 @@
       </c>
       <c r="AA258" s="19"/>
       <c r="AB258" s="19"/>
-      <c r="AC258" s="33"/>
+      <c r="AC258" s="32"/>
       <c r="AD258" s="19"/>
       <c r="AE258" s="19"/>
       <c r="AF258" s="19"/>
@@ -23872,7 +23863,7 @@
       </c>
       <c r="AA259" s="19"/>
       <c r="AB259" s="19"/>
-      <c r="AC259" s="33"/>
+      <c r="AC259" s="32"/>
       <c r="AD259" s="19"/>
       <c r="AE259" s="19"/>
       <c r="AF259" s="19"/>
@@ -23958,7 +23949,7 @@
       </c>
       <c r="AA260" s="19"/>
       <c r="AB260" s="19"/>
-      <c r="AC260" s="33"/>
+      <c r="AC260" s="32"/>
       <c r="AD260" s="19"/>
       <c r="AE260" s="19"/>
       <c r="AF260" s="19"/>
@@ -24044,7 +24035,7 @@
       </c>
       <c r="AA261" s="19"/>
       <c r="AB261" s="19"/>
-      <c r="AC261" s="33"/>
+      <c r="AC261" s="32"/>
       <c r="AD261" s="19"/>
       <c r="AE261" s="19"/>
       <c r="AF261" s="19"/>
@@ -24130,7 +24121,7 @@
       </c>
       <c r="AA262" s="19"/>
       <c r="AB262" s="19"/>
-      <c r="AC262" s="33"/>
+      <c r="AC262" s="32"/>
       <c r="AD262" s="19"/>
       <c r="AE262" s="19"/>
       <c r="AF262" s="19"/>
@@ -24216,7 +24207,7 @@
       </c>
       <c r="AA263" s="19"/>
       <c r="AB263" s="19"/>
-      <c r="AC263" s="33"/>
+      <c r="AC263" s="32"/>
       <c r="AD263" s="19"/>
       <c r="AE263" s="19"/>
       <c r="AF263" s="19"/>
@@ -24302,7 +24293,7 @@
       </c>
       <c r="AA264" s="19"/>
       <c r="AB264" s="19"/>
-      <c r="AC264" s="33"/>
+      <c r="AC264" s="32"/>
       <c r="AD264" s="19"/>
       <c r="AE264" s="19"/>
       <c r="AF264" s="19"/>
@@ -24388,7 +24379,7 @@
       </c>
       <c r="AA265" s="19"/>
       <c r="AB265" s="19"/>
-      <c r="AC265" s="33"/>
+      <c r="AC265" s="32"/>
       <c r="AD265" s="19"/>
       <c r="AE265" s="19"/>
       <c r="AF265" s="19"/>
@@ -24474,7 +24465,7 @@
       </c>
       <c r="AA266" s="19"/>
       <c r="AB266" s="19"/>
-      <c r="AC266" s="33"/>
+      <c r="AC266" s="32"/>
       <c r="AD266" s="19"/>
       <c r="AE266" s="19"/>
       <c r="AF266" s="19"/>
@@ -24560,7 +24551,7 @@
       </c>
       <c r="AA267" s="19"/>
       <c r="AB267" s="19"/>
-      <c r="AC267" s="33"/>
+      <c r="AC267" s="32"/>
       <c r="AD267" s="19"/>
       <c r="AE267" s="19"/>
       <c r="AF267" s="19"/>
@@ -24646,7 +24637,7 @@
       </c>
       <c r="AA268" s="19"/>
       <c r="AB268" s="19"/>
-      <c r="AC268" s="33"/>
+      <c r="AC268" s="32"/>
       <c r="AD268" s="19"/>
       <c r="AE268" s="19"/>
       <c r="AF268" s="19"/>
@@ -24732,7 +24723,7 @@
       </c>
       <c r="AA269" s="19"/>
       <c r="AB269" s="19"/>
-      <c r="AC269" s="33"/>
+      <c r="AC269" s="32"/>
       <c r="AD269" s="19"/>
       <c r="AE269" s="19"/>
       <c r="AF269" s="19"/>
@@ -24818,7 +24809,7 @@
       </c>
       <c r="AA270" s="19"/>
       <c r="AB270" s="19"/>
-      <c r="AC270" s="33"/>
+      <c r="AC270" s="32"/>
       <c r="AD270" s="19"/>
       <c r="AE270" s="19"/>
       <c r="AF270" s="19"/>
@@ -24904,7 +24895,7 @@
       </c>
       <c r="AA271" s="19"/>
       <c r="AB271" s="19"/>
-      <c r="AC271" s="33"/>
+      <c r="AC271" s="32"/>
       <c r="AD271" s="19"/>
       <c r="AE271" s="19"/>
       <c r="AF271" s="19"/>
@@ -24990,7 +24981,7 @@
       </c>
       <c r="AA272" s="19"/>
       <c r="AB272" s="19"/>
-      <c r="AC272" s="33"/>
+      <c r="AC272" s="32"/>
       <c r="AD272" s="19"/>
       <c r="AE272" s="19"/>
       <c r="AF272" s="19"/>
@@ -25076,7 +25067,7 @@
       </c>
       <c r="AA273" s="19"/>
       <c r="AB273" s="19"/>
-      <c r="AC273" s="33"/>
+      <c r="AC273" s="32"/>
       <c r="AD273" s="19"/>
       <c r="AE273" s="19"/>
       <c r="AF273" s="19"/>
@@ -25162,7 +25153,7 @@
       </c>
       <c r="AA274" s="19"/>
       <c r="AB274" s="19"/>
-      <c r="AC274" s="33"/>
+      <c r="AC274" s="32"/>
       <c r="AD274" s="19"/>
       <c r="AE274" s="19"/>
       <c r="AF274" s="19"/>
@@ -25248,7 +25239,7 @@
       </c>
       <c r="AA275" s="19"/>
       <c r="AB275" s="19"/>
-      <c r="AC275" s="33"/>
+      <c r="AC275" s="32"/>
       <c r="AD275" s="19"/>
       <c r="AE275" s="19"/>
       <c r="AF275" s="19"/>
@@ -25334,7 +25325,7 @@
       </c>
       <c r="AA276" s="19"/>
       <c r="AB276" s="19"/>
-      <c r="AC276" s="33"/>
+      <c r="AC276" s="32"/>
       <c r="AD276" s="19"/>
       <c r="AE276" s="19"/>
       <c r="AF276" s="19"/>
@@ -25420,7 +25411,7 @@
       </c>
       <c r="AA277" s="19"/>
       <c r="AB277" s="19"/>
-      <c r="AC277" s="33"/>
+      <c r="AC277" s="32"/>
       <c r="AD277" s="19"/>
       <c r="AE277" s="19"/>
       <c r="AF277" s="19"/>
@@ -25506,7 +25497,7 @@
       </c>
       <c r="AA278" s="19"/>
       <c r="AB278" s="19"/>
-      <c r="AC278" s="33"/>
+      <c r="AC278" s="32"/>
       <c r="AD278" s="19"/>
       <c r="AE278" s="19"/>
       <c r="AF278" s="19"/>
@@ -25592,7 +25583,7 @@
       </c>
       <c r="AA279" s="19"/>
       <c r="AB279" s="19"/>
-      <c r="AC279" s="33"/>
+      <c r="AC279" s="32"/>
       <c r="AD279" s="19"/>
       <c r="AE279" s="19"/>
       <c r="AF279" s="19"/>
@@ -25626,7 +25617,7 @@
       <c r="Z280" s="18"/>
       <c r="AA280" s="19"/>
       <c r="AB280" s="19"/>
-      <c r="AC280" s="33"/>
+      <c r="AC280" s="32"/>
       <c r="AD280" s="19"/>
       <c r="AE280" s="19"/>
       <c r="AF280" s="19"/>
@@ -25660,7 +25651,7 @@
       <c r="Z281" s="18"/>
       <c r="AA281" s="19"/>
       <c r="AB281" s="19"/>
-      <c r="AC281" s="33"/>
+      <c r="AC281" s="32"/>
       <c r="AD281" s="19"/>
       <c r="AE281" s="19"/>
       <c r="AF281" s="19"/>
@@ -25694,7 +25685,7 @@
       <c r="Z282" s="18"/>
       <c r="AA282" s="19"/>
       <c r="AB282" s="19"/>
-      <c r="AC282" s="33"/>
+      <c r="AC282" s="32"/>
       <c r="AD282" s="19"/>
       <c r="AE282" s="19"/>
       <c r="AF282" s="19"/>
@@ -25728,7 +25719,7 @@
       <c r="Z283" s="18"/>
       <c r="AA283" s="19"/>
       <c r="AB283" s="19"/>
-      <c r="AC283" s="33"/>
+      <c r="AC283" s="32"/>
       <c r="AD283" s="19"/>
       <c r="AE283" s="19"/>
       <c r="AF283" s="19"/>
@@ -25762,7 +25753,7 @@
       <c r="Z284" s="18"/>
       <c r="AA284" s="19"/>
       <c r="AB284" s="19"/>
-      <c r="AC284" s="33"/>
+      <c r="AC284" s="32"/>
       <c r="AD284" s="19"/>
       <c r="AE284" s="19"/>
       <c r="AF284" s="19"/>
@@ -25796,7 +25787,7 @@
       <c r="Z285" s="18"/>
       <c r="AA285" s="19"/>
       <c r="AB285" s="19"/>
-      <c r="AC285" s="33"/>
+      <c r="AC285" s="32"/>
       <c r="AD285" s="19"/>
       <c r="AE285" s="19"/>
       <c r="AF285" s="19"/>
@@ -25830,7 +25821,7 @@
       <c r="Z286" s="18"/>
       <c r="AA286" s="19"/>
       <c r="AB286" s="19"/>
-      <c r="AC286" s="33"/>
+      <c r="AC286" s="32"/>
       <c r="AD286" s="19"/>
       <c r="AE286" s="19"/>
       <c r="AF286" s="19"/>
@@ -25864,7 +25855,7 @@
       <c r="Z287" s="18"/>
       <c r="AA287" s="19"/>
       <c r="AB287" s="19"/>
-      <c r="AC287" s="33"/>
+      <c r="AC287" s="32"/>
       <c r="AD287" s="19"/>
       <c r="AE287" s="19"/>
       <c r="AF287" s="19"/>
@@ -25898,7 +25889,7 @@
       <c r="Z288" s="18"/>
       <c r="AA288" s="19"/>
       <c r="AB288" s="19"/>
-      <c r="AC288" s="33"/>
+      <c r="AC288" s="32"/>
       <c r="AD288" s="19"/>
       <c r="AE288" s="19"/>
       <c r="AF288" s="19"/>
@@ -25932,7 +25923,7 @@
       <c r="Z289" s="18"/>
       <c r="AA289" s="19"/>
       <c r="AB289" s="19"/>
-      <c r="AC289" s="33"/>
+      <c r="AC289" s="32"/>
       <c r="AD289" s="19"/>
       <c r="AE289" s="19"/>
       <c r="AF289" s="19"/>
@@ -25966,7 +25957,7 @@
       <c r="Z290" s="18"/>
       <c r="AA290" s="19"/>
       <c r="AB290" s="19"/>
-      <c r="AC290" s="33"/>
+      <c r="AC290" s="32"/>
       <c r="AD290" s="19"/>
       <c r="AE290" s="19"/>
       <c r="AF290" s="19"/>
@@ -26000,7 +25991,7 @@
       <c r="Z291" s="18"/>
       <c r="AA291" s="19"/>
       <c r="AB291" s="19"/>
-      <c r="AC291" s="33"/>
+      <c r="AC291" s="32"/>
       <c r="AD291" s="19"/>
       <c r="AE291" s="19"/>
       <c r="AF291" s="19"/>
@@ -26034,7 +26025,7 @@
       <c r="Z292" s="18"/>
       <c r="AA292" s="19"/>
       <c r="AB292" s="19"/>
-      <c r="AC292" s="33"/>
+      <c r="AC292" s="32"/>
       <c r="AD292" s="19"/>
       <c r="AE292" s="19"/>
       <c r="AF292" s="19"/>
@@ -26068,7 +26059,7 @@
       <c r="Z293" s="18"/>
       <c r="AA293" s="19"/>
       <c r="AB293" s="19"/>
-      <c r="AC293" s="33"/>
+      <c r="AC293" s="32"/>
       <c r="AD293" s="19"/>
       <c r="AE293" s="19"/>
       <c r="AF293" s="19"/>
@@ -26102,7 +26093,7 @@
       <c r="Z294" s="18"/>
       <c r="AA294" s="19"/>
       <c r="AB294" s="19"/>
-      <c r="AC294" s="33"/>
+      <c r="AC294" s="32"/>
       <c r="AD294" s="19"/>
       <c r="AE294" s="19"/>
       <c r="AF294" s="19"/>
